--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb1-Acvrl1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb1-Acvrl1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H2">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I2">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J2">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.4812992989993</v>
+        <v>22.4946565</v>
       </c>
       <c r="N2">
-        <v>22.4812992989993</v>
+        <v>44.989313</v>
       </c>
       <c r="O2">
-        <v>0.3220148068118078</v>
+        <v>0.3151966875580082</v>
       </c>
       <c r="P2">
-        <v>0.3220148068118078</v>
+        <v>0.2370110495774999</v>
       </c>
       <c r="Q2">
-        <v>1046.937689560932</v>
+        <v>1057.885533010248</v>
       </c>
       <c r="R2">
-        <v>1046.937689560932</v>
+        <v>4231.542132040991</v>
       </c>
       <c r="S2">
-        <v>0.03813739609110582</v>
+        <v>0.03690625500713456</v>
       </c>
       <c r="T2">
-        <v>0.03813739609110582</v>
+        <v>0.01946732004847185</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H3">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I3">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J3">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.06906276389268</v>
+        <v>9.567994999999998</v>
       </c>
       <c r="N3">
-        <v>9.06906276389268</v>
+        <v>28.703985</v>
       </c>
       <c r="O3">
-        <v>0.1299023003536568</v>
+        <v>0.1340674097678079</v>
       </c>
       <c r="P3">
-        <v>0.1299023003536568</v>
+        <v>0.1512172815776674</v>
       </c>
       <c r="Q3">
-        <v>422.3396294953255</v>
+        <v>449.9665727464824</v>
       </c>
       <c r="R3">
-        <v>422.3396294953255</v>
+        <v>2699.799436478895</v>
       </c>
       <c r="S3">
-        <v>0.01538480646521483</v>
+        <v>0.01569789978242114</v>
       </c>
       <c r="T3">
-        <v>0.01538480646521483</v>
+        <v>0.01242049778936467</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H4">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I4">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J4">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.3959903831964</v>
+        <v>7.76793</v>
       </c>
       <c r="N4">
-        <v>7.3959903831964</v>
+        <v>23.30379</v>
       </c>
       <c r="O4">
-        <v>0.1059377566550608</v>
+        <v>0.108844774099239</v>
       </c>
       <c r="P4">
-        <v>0.1059377566550608</v>
+        <v>0.1227681722331178</v>
       </c>
       <c r="Q4">
-        <v>344.4258706231976</v>
+        <v>365.312569606755</v>
       </c>
       <c r="R4">
-        <v>344.4258706231976</v>
+        <v>2191.87541764053</v>
       </c>
       <c r="S4">
-        <v>0.0125465975510822</v>
+        <v>0.01274459138585071</v>
       </c>
       <c r="T4">
-        <v>0.0125465975510822</v>
+        <v>0.01008378008066889</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H5">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I5">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J5">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.1179709194825</v>
+        <v>9.390817666666665</v>
       </c>
       <c r="N5">
-        <v>9.1179709194825</v>
+        <v>28.172453</v>
       </c>
       <c r="O5">
-        <v>0.1306028448401794</v>
+        <v>0.1315847886805721</v>
       </c>
       <c r="P5">
-        <v>0.1306028448401794</v>
+        <v>0.1484170841795869</v>
       </c>
       <c r="Q5">
-        <v>424.6172465819934</v>
+        <v>441.6342233411618</v>
       </c>
       <c r="R5">
-        <v>424.6172465819934</v>
+        <v>2649.805340046971</v>
       </c>
       <c r="S5">
-        <v>0.01546777452133147</v>
+        <v>0.01540721066496411</v>
       </c>
       <c r="T5">
-        <v>0.01546777452133147</v>
+        <v>0.01219049864356744</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H6">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I6">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J6">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.115376166178</v>
+        <v>20.35864033333333</v>
       </c>
       <c r="N6">
-        <v>20.115376166178</v>
+        <v>61.07592099999999</v>
       </c>
       <c r="O6">
-        <v>0.2881260946686912</v>
+        <v>0.2852666808338029</v>
       </c>
       <c r="P6">
-        <v>0.2881260946686912</v>
+        <v>0.3217579281577931</v>
       </c>
       <c r="Q6">
-        <v>936.7583771728379</v>
+        <v>957.4323164433411</v>
       </c>
       <c r="R6">
-        <v>936.7583771728379</v>
+        <v>5744.593898660047</v>
       </c>
       <c r="S6">
-        <v>0.03412383146401453</v>
+        <v>0.0334017624025748</v>
       </c>
       <c r="T6">
-        <v>0.03412383146401453</v>
+        <v>0.02642815420102509</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H7">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I7">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J7">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.63478981295333</v>
+        <v>1.7870065</v>
       </c>
       <c r="N7">
-        <v>1.63478981295333</v>
+        <v>3.574013</v>
       </c>
       <c r="O7">
-        <v>0.02341619667060394</v>
+        <v>0.02503965906056977</v>
       </c>
       <c r="P7">
-        <v>0.02341619667060394</v>
+        <v>0.01882848427433487</v>
       </c>
       <c r="Q7">
-        <v>76.13096765129107</v>
+        <v>84.03988403847275</v>
       </c>
       <c r="R7">
-        <v>76.13096765129107</v>
+        <v>336.159536153891</v>
       </c>
       <c r="S7">
-        <v>0.002773266161937587</v>
+        <v>0.002931883738184978</v>
       </c>
       <c r="T7">
-        <v>0.002773266161937587</v>
+        <v>0.001546510721966326</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H8">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I8">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J8">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.4812992989993</v>
+        <v>22.4946565</v>
       </c>
       <c r="N8">
-        <v>22.4812992989993</v>
+        <v>44.989313</v>
       </c>
       <c r="O8">
-        <v>0.3220148068118078</v>
+        <v>0.3151966875580082</v>
       </c>
       <c r="P8">
-        <v>0.3220148068118078</v>
+        <v>0.2370110495774999</v>
       </c>
       <c r="Q8">
-        <v>262.003565094465</v>
+        <v>277.3875853819102</v>
       </c>
       <c r="R8">
-        <v>262.003565094465</v>
+        <v>1664.325512291461</v>
       </c>
       <c r="S8">
-        <v>0.00954415323750544</v>
+        <v>0.009677168883090226</v>
       </c>
       <c r="T8">
-        <v>0.00954415323750544</v>
+        <v>0.007656772968720825</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H9">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I9">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J9">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.06906276389268</v>
+        <v>9.567994999999998</v>
       </c>
       <c r="N9">
-        <v>9.06906276389268</v>
+        <v>28.703985</v>
       </c>
       <c r="O9">
-        <v>0.1299023003536568</v>
+        <v>0.1340674097678079</v>
       </c>
       <c r="P9">
-        <v>0.1299023003536568</v>
+        <v>0.1512172815776674</v>
       </c>
       <c r="Q9">
-        <v>105.6934808172369</v>
+        <v>117.9854882423383</v>
       </c>
       <c r="R9">
-        <v>105.6934808172369</v>
+        <v>1061.869394181045</v>
       </c>
       <c r="S9">
-        <v>0.003850156683025844</v>
+        <v>0.004116137691969773</v>
       </c>
       <c r="T9">
-        <v>0.003850156683025844</v>
+        <v>0.004885157869438193</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H10">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I10">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J10">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.3959903831964</v>
+        <v>7.76793</v>
       </c>
       <c r="N10">
-        <v>7.3959903831964</v>
+        <v>23.30379</v>
       </c>
       <c r="O10">
-        <v>0.1059377566550608</v>
+        <v>0.108844774099239</v>
       </c>
       <c r="P10">
-        <v>0.1059377566550608</v>
+        <v>0.1227681722331178</v>
       </c>
       <c r="Q10">
-        <v>86.19501133051018</v>
+        <v>95.78840851007</v>
       </c>
       <c r="R10">
-        <v>86.19501133051018</v>
+        <v>862.09567659063</v>
       </c>
       <c r="S10">
-        <v>0.003139874818689198</v>
+        <v>0.003341752317134652</v>
       </c>
       <c r="T10">
-        <v>0.003139874818689198</v>
+        <v>0.003966093666305744</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H11">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I11">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J11">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.1179709194825</v>
+        <v>9.390817666666665</v>
       </c>
       <c r="N11">
-        <v>9.1179709194825</v>
+        <v>28.172453</v>
       </c>
       <c r="O11">
-        <v>0.1306028448401794</v>
+        <v>0.1315847886805721</v>
       </c>
       <c r="P11">
-        <v>0.1306028448401794</v>
+        <v>0.1484170841795869</v>
       </c>
       <c r="Q11">
-        <v>106.263470609922</v>
+        <v>115.8006674748934</v>
       </c>
       <c r="R11">
-        <v>106.263470609922</v>
+        <v>1042.206007274041</v>
       </c>
       <c r="S11">
-        <v>0.003870920026162945</v>
+        <v>0.004039916257918436</v>
       </c>
       <c r="T11">
-        <v>0.003870920026162945</v>
+        <v>0.004794695944633737</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H12">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I12">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J12">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.115376166178</v>
+        <v>20.35864033333333</v>
       </c>
       <c r="N12">
-        <v>20.115376166178</v>
+        <v>61.07592099999999</v>
       </c>
       <c r="O12">
-        <v>0.2881260946686912</v>
+        <v>0.2852666808338029</v>
       </c>
       <c r="P12">
-        <v>0.2881260946686912</v>
+        <v>0.3217579281577931</v>
       </c>
       <c r="Q12">
-        <v>234.430412524665</v>
+        <v>251.0478025624485</v>
       </c>
       <c r="R12">
-        <v>234.430412524665</v>
+        <v>2259.430223062037</v>
       </c>
       <c r="S12">
-        <v>0.008539730289014624</v>
+        <v>0.008758257799391555</v>
       </c>
       <c r="T12">
-        <v>0.008539730289014624</v>
+        <v>0.01039456772661829</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H13">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I13">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J13">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.63478981295333</v>
+        <v>1.7870065</v>
       </c>
       <c r="N13">
-        <v>1.63478981295333</v>
+        <v>3.574013</v>
       </c>
       <c r="O13">
-        <v>0.02341619667060394</v>
+        <v>0.02503965906056977</v>
       </c>
       <c r="P13">
-        <v>0.02341619667060394</v>
+        <v>0.01882848427433487</v>
       </c>
       <c r="Q13">
-        <v>19.05231336842492</v>
+        <v>22.03605189956017</v>
       </c>
       <c r="R13">
-        <v>19.05231336842492</v>
+        <v>132.216311397361</v>
       </c>
       <c r="S13">
-        <v>0.0006940294810555702</v>
+        <v>0.000768767626910861</v>
       </c>
       <c r="T13">
-        <v>0.0006940294810555702</v>
+        <v>0.0006082645922656525</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H14">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I14">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J14">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>22.4812992989993</v>
+        <v>22.4946565</v>
       </c>
       <c r="N14">
-        <v>22.4812992989993</v>
+        <v>44.989313</v>
       </c>
       <c r="O14">
-        <v>0.3220148068118078</v>
+        <v>0.3151966875580082</v>
       </c>
       <c r="P14">
-        <v>0.3220148068118078</v>
+        <v>0.2370110495774999</v>
       </c>
       <c r="Q14">
-        <v>2804.202246458342</v>
+        <v>2902.922164474103</v>
       </c>
       <c r="R14">
-        <v>2804.202246458342</v>
+        <v>17417.53298684462</v>
       </c>
       <c r="S14">
-        <v>0.102150273945722</v>
+        <v>0.1012737033685349</v>
       </c>
       <c r="T14">
-        <v>0.102150273945722</v>
+        <v>0.08012981521376837</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H15">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I15">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J15">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.06906276389268</v>
+        <v>9.567994999999998</v>
       </c>
       <c r="N15">
-        <v>9.06906276389268</v>
+        <v>28.703985</v>
       </c>
       <c r="O15">
-        <v>0.1299023003536568</v>
+        <v>0.1340674097678079</v>
       </c>
       <c r="P15">
-        <v>0.1299023003536568</v>
+        <v>0.1512172815776674</v>
       </c>
       <c r="Q15">
-        <v>1131.228486287337</v>
+        <v>1234.744116011613</v>
       </c>
       <c r="R15">
-        <v>1131.228486287337</v>
+        <v>11112.69704410452</v>
       </c>
       <c r="S15">
-        <v>0.04120790499879254</v>
+        <v>0.04307628736013927</v>
       </c>
       <c r="T15">
-        <v>0.04120790499879254</v>
+        <v>0.0511242528630917</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H16">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I16">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J16">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.3959903831964</v>
+        <v>7.76793</v>
       </c>
       <c r="N16">
-        <v>7.3959903831964</v>
+        <v>23.30379</v>
       </c>
       <c r="O16">
-        <v>0.1059377566550608</v>
+        <v>0.108844774099239</v>
       </c>
       <c r="P16">
-        <v>0.1059377566550608</v>
+        <v>0.1227681722331178</v>
       </c>
       <c r="Q16">
-        <v>922.5379979824754</v>
+        <v>1002.44678859992</v>
       </c>
       <c r="R16">
-        <v>922.5379979824754</v>
+        <v>9022.02109739928</v>
       </c>
       <c r="S16">
-        <v>0.03360581760401488</v>
+        <v>0.03497217388527551</v>
       </c>
       <c r="T16">
-        <v>0.03360581760401488</v>
+        <v>0.04150604359040697</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H17">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I17">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J17">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.1179709194825</v>
+        <v>9.390817666666665</v>
       </c>
       <c r="N17">
-        <v>9.1179709194825</v>
+        <v>28.172453</v>
       </c>
       <c r="O17">
-        <v>0.1306028448401794</v>
+        <v>0.1315847886805721</v>
       </c>
       <c r="P17">
-        <v>0.1306028448401794</v>
+        <v>0.1484170841795869</v>
       </c>
       <c r="Q17">
-        <v>1137.329039371527</v>
+        <v>1211.879485561455</v>
       </c>
       <c r="R17">
-        <v>1137.329039371527</v>
+        <v>10906.9153700531</v>
       </c>
       <c r="S17">
-        <v>0.04143013332399893</v>
+        <v>0.04227861326808866</v>
       </c>
       <c r="T17">
-        <v>0.04143013332399893</v>
+        <v>0.05017754889941471</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H18">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I18">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J18">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>20.115376166178</v>
+        <v>20.35864033333333</v>
       </c>
       <c r="N18">
-        <v>20.115376166178</v>
+        <v>61.07592099999999</v>
       </c>
       <c r="O18">
-        <v>0.2881260946686912</v>
+        <v>0.2852666808338029</v>
       </c>
       <c r="P18">
-        <v>0.2881260946686912</v>
+        <v>0.3217579281577931</v>
       </c>
       <c r="Q18">
-        <v>2509.08910038228</v>
+        <v>2627.270536991296</v>
       </c>
       <c r="R18">
-        <v>2509.08910038228</v>
+        <v>23645.43483292167</v>
       </c>
       <c r="S18">
-        <v>0.09140001912557584</v>
+        <v>0.09165709652444302</v>
       </c>
       <c r="T18">
-        <v>0.09140001912557584</v>
+        <v>0.1087814402442801</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H19">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I19">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J19">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.63478981295333</v>
+        <v>1.7870065</v>
       </c>
       <c r="N19">
-        <v>1.63478981295333</v>
+        <v>3.574013</v>
       </c>
       <c r="O19">
-        <v>0.02341619667060394</v>
+        <v>0.02503965906056977</v>
       </c>
       <c r="P19">
-        <v>0.02341619667060394</v>
+        <v>0.01882848427433487</v>
       </c>
       <c r="Q19">
-        <v>203.9153166816741</v>
+        <v>230.6121356825026</v>
       </c>
       <c r="R19">
-        <v>203.9153166816741</v>
+        <v>1383.672814095016</v>
       </c>
       <c r="S19">
-        <v>0.00742813949566926</v>
+        <v>0.008045322505753476</v>
       </c>
       <c r="T19">
-        <v>0.00742813949566926</v>
+        <v>0.006365622903857321</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H20">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I20">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J20">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>22.4812992989993</v>
+        <v>22.4946565</v>
       </c>
       <c r="N20">
-        <v>22.4812992989993</v>
+        <v>44.989313</v>
       </c>
       <c r="O20">
-        <v>0.3220148068118078</v>
+        <v>0.3151966875580082</v>
       </c>
       <c r="P20">
-        <v>0.3220148068118078</v>
+        <v>0.2370110495774999</v>
       </c>
       <c r="Q20">
-        <v>3564.226667062254</v>
+        <v>3568.63181077429</v>
       </c>
       <c r="R20">
-        <v>3564.226667062254</v>
+        <v>21411.79086464574</v>
       </c>
       <c r="S20">
-        <v>0.1298361168153589</v>
+        <v>0.1244981914633409</v>
       </c>
       <c r="T20">
-        <v>0.1298361168153589</v>
+        <v>0.09850550285598966</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H21">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I21">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J21">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>9.06906276389268</v>
+        <v>9.567994999999998</v>
       </c>
       <c r="N21">
-        <v>9.06906276389268</v>
+        <v>28.703985</v>
       </c>
       <c r="O21">
-        <v>0.1299023003536568</v>
+        <v>0.1340674097678079</v>
       </c>
       <c r="P21">
-        <v>0.1299023003536568</v>
+        <v>0.1512172815776674</v>
       </c>
       <c r="Q21">
-        <v>1437.825942282901</v>
+        <v>1517.900543283661</v>
       </c>
       <c r="R21">
-        <v>1437.825942282901</v>
+        <v>13661.10488955295</v>
       </c>
       <c r="S21">
-        <v>0.05237650532373832</v>
+        <v>0.0529547127527948</v>
       </c>
       <c r="T21">
-        <v>0.05237650532373832</v>
+        <v>0.06284826968564254</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H22">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I22">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J22">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.3959903831964</v>
+        <v>7.76793</v>
       </c>
       <c r="N22">
-        <v>7.3959903831964</v>
+        <v>23.30379</v>
       </c>
       <c r="O22">
-        <v>0.1059377566550608</v>
+        <v>0.108844774099239</v>
       </c>
       <c r="P22">
-        <v>0.1059377566550608</v>
+        <v>0.1227681722331178</v>
       </c>
       <c r="Q22">
-        <v>1172.573960362602</v>
+        <v>1232.33186965393</v>
       </c>
       <c r="R22">
-        <v>1172.573960362602</v>
+        <v>11090.98682688537</v>
       </c>
       <c r="S22">
-        <v>0.04271402015455141</v>
+        <v>0.04299213177199793</v>
       </c>
       <c r="T22">
-        <v>0.04271402015455141</v>
+        <v>0.051024374442001</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H23">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I23">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J23">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.1179709194825</v>
+        <v>9.390817666666665</v>
       </c>
       <c r="N23">
-        <v>9.1179709194825</v>
+        <v>28.172453</v>
       </c>
       <c r="O23">
-        <v>0.1306028448401794</v>
+        <v>0.1315847886805721</v>
       </c>
       <c r="P23">
-        <v>0.1306028448401794</v>
+        <v>0.1484170841795869</v>
       </c>
       <c r="Q23">
-        <v>1445.579931501746</v>
+        <v>1489.792504919906</v>
       </c>
       <c r="R23">
-        <v>1445.579931501746</v>
+        <v>13408.13254427916</v>
       </c>
       <c r="S23">
-        <v>0.05265896430966829</v>
+        <v>0.05197411286818232</v>
       </c>
       <c r="T23">
-        <v>0.05265896430966829</v>
+        <v>0.06168446380703199</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H24">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I24">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J24">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>20.115376166178</v>
+        <v>20.35864033333333</v>
       </c>
       <c r="N24">
-        <v>20.115376166178</v>
+        <v>61.07592099999999</v>
       </c>
       <c r="O24">
-        <v>0.2881260946686912</v>
+        <v>0.2852666808338029</v>
       </c>
       <c r="P24">
-        <v>0.2881260946686912</v>
+        <v>0.3217579281577931</v>
       </c>
       <c r="Q24">
-        <v>3189.128848645837</v>
+        <v>3229.766656701151</v>
       </c>
       <c r="R24">
-        <v>3189.128848645837</v>
+        <v>29067.89991031036</v>
       </c>
       <c r="S24">
-        <v>0.1161722147355169</v>
+        <v>0.1126762661235849</v>
       </c>
       <c r="T24">
-        <v>0.1161722147355169</v>
+        <v>0.1337276323934464</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H25">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I25">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J25">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.63478981295333</v>
+        <v>1.7870065</v>
       </c>
       <c r="N25">
-        <v>1.63478981295333</v>
+        <v>3.574013</v>
       </c>
       <c r="O25">
-        <v>0.02341619667060394</v>
+        <v>0.02503965906056977</v>
       </c>
       <c r="P25">
-        <v>0.02341619667060394</v>
+        <v>0.01882848427433487</v>
       </c>
       <c r="Q25">
-        <v>259.1825930020574</v>
+        <v>283.4970270366398</v>
       </c>
       <c r="R25">
-        <v>259.1825930020574</v>
+        <v>1700.982162219839</v>
       </c>
       <c r="S25">
-        <v>0.009441392078820606</v>
+        <v>0.009890307833028468</v>
       </c>
       <c r="T25">
-        <v>0.009441392078820606</v>
+        <v>0.00782541284368677</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H26">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I26">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J26">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>22.4812992989993</v>
+        <v>22.4946565</v>
       </c>
       <c r="N26">
-        <v>22.4812992989993</v>
+        <v>44.989313</v>
       </c>
       <c r="O26">
-        <v>0.3220148068118078</v>
+        <v>0.3151966875580082</v>
       </c>
       <c r="P26">
-        <v>0.3220148068118078</v>
+        <v>0.2370110495774999</v>
       </c>
       <c r="Q26">
-        <v>875.322150414046</v>
+        <v>940.5079992421025</v>
       </c>
       <c r="R26">
-        <v>875.322150414046</v>
+        <v>5643.047995452615</v>
       </c>
       <c r="S26">
-        <v>0.03188585900624041</v>
+        <v>0.03281132690935733</v>
       </c>
       <c r="T26">
-        <v>0.03188585900624041</v>
+        <v>0.02596098962232888</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H27">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I27">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J27">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>9.06906276389268</v>
+        <v>9.567994999999998</v>
       </c>
       <c r="N27">
-        <v>9.06906276389268</v>
+        <v>28.703985</v>
       </c>
       <c r="O27">
-        <v>0.1299023003536568</v>
+        <v>0.1340674097678079</v>
       </c>
       <c r="P27">
-        <v>0.1299023003536568</v>
+        <v>0.1512172815776674</v>
       </c>
       <c r="Q27">
-        <v>353.1091070472003</v>
+        <v>400.0405978285749</v>
       </c>
       <c r="R27">
-        <v>353.1091070472003</v>
+        <v>3600.365380457175</v>
       </c>
       <c r="S27">
-        <v>0.01286290675473098</v>
+        <v>0.01395614162021528</v>
       </c>
       <c r="T27">
-        <v>0.01286290675473098</v>
+        <v>0.01656357492510463</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H28">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I28">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J28">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>7.3959903831964</v>
+        <v>7.76793</v>
       </c>
       <c r="N28">
-        <v>7.3959903831964</v>
+        <v>23.30379</v>
       </c>
       <c r="O28">
-        <v>0.1059377566550608</v>
+        <v>0.108844774099239</v>
       </c>
       <c r="P28">
-        <v>0.1059377566550608</v>
+        <v>0.1227681722331178</v>
       </c>
       <c r="Q28">
-        <v>287.967084133311</v>
+        <v>324.77936716005</v>
       </c>
       <c r="R28">
-        <v>287.967084133311</v>
+        <v>2923.01430444045</v>
       </c>
       <c r="S28">
-        <v>0.01048994114769015</v>
+        <v>0.01133051712254437</v>
       </c>
       <c r="T28">
-        <v>0.01048994114769015</v>
+        <v>0.01344740361674186</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H29">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I29">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J29">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>9.1179709194825</v>
+        <v>9.390817666666665</v>
       </c>
       <c r="N29">
-        <v>9.1179709194825</v>
+        <v>28.172453</v>
       </c>
       <c r="O29">
-        <v>0.1306028448401794</v>
+        <v>0.1315847886805721</v>
       </c>
       <c r="P29">
-        <v>0.1306028448401794</v>
+        <v>0.1484170841795869</v>
       </c>
       <c r="Q29">
-        <v>355.0133738493229</v>
+        <v>392.6327630263683</v>
       </c>
       <c r="R29">
-        <v>355.0133738493229</v>
+        <v>3533.694867237315</v>
       </c>
       <c r="S29">
-        <v>0.0129322745671804</v>
+        <v>0.013697705871044</v>
       </c>
       <c r="T29">
-        <v>0.0129322745671804</v>
+        <v>0.01625685548851453</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H30">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I30">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J30">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>20.115376166178</v>
+        <v>20.35864033333333</v>
       </c>
       <c r="N30">
-        <v>20.115376166178</v>
+        <v>61.07592099999999</v>
       </c>
       <c r="O30">
-        <v>0.2881260946686912</v>
+        <v>0.2852666808338029</v>
       </c>
       <c r="P30">
-        <v>0.2881260946686912</v>
+        <v>0.3217579281577931</v>
       </c>
       <c r="Q30">
-        <v>783.2035901479292</v>
+        <v>851.2005545491616</v>
       </c>
       <c r="R30">
-        <v>783.2035901479292</v>
+        <v>7660.804990942454</v>
       </c>
       <c r="S30">
-        <v>0.02853020369337775</v>
+        <v>0.02969567476645074</v>
       </c>
       <c r="T30">
-        <v>0.02853020369337775</v>
+        <v>0.03524373335630127</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H31">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I31">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J31">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.63478981295333</v>
+        <v>1.7870065</v>
       </c>
       <c r="N31">
-        <v>1.63478981295333</v>
+        <v>3.574013</v>
       </c>
       <c r="O31">
-        <v>0.02341619667060394</v>
+        <v>0.02503965906056977</v>
       </c>
       <c r="P31">
-        <v>0.02341619667060394</v>
+        <v>0.01882848427433487</v>
       </c>
       <c r="Q31">
-        <v>63.6514694065294</v>
+        <v>74.7152510618525</v>
       </c>
       <c r="R31">
-        <v>63.6514694065294</v>
+        <v>448.291506371115</v>
       </c>
       <c r="S31">
-        <v>0.002318668364643333</v>
+        <v>0.002606577009106427</v>
       </c>
       <c r="T31">
-        <v>0.002318668364643333</v>
+        <v>0.002062376778304406</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H32">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I32">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J32">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>22.4812992989993</v>
+        <v>22.4946565</v>
       </c>
       <c r="N32">
-        <v>22.4812992989993</v>
+        <v>44.989313</v>
       </c>
       <c r="O32">
-        <v>0.3220148068118078</v>
+        <v>0.3151966875580082</v>
       </c>
       <c r="P32">
-        <v>0.3220148068118078</v>
+        <v>0.2370110495774999</v>
       </c>
       <c r="Q32">
-        <v>287.1728112316433</v>
+        <v>287.5023826593235</v>
       </c>
       <c r="R32">
-        <v>287.1728112316433</v>
+        <v>1150.009530637294</v>
       </c>
       <c r="S32">
-        <v>0.01046100771587527</v>
+        <v>0.01003004192655028</v>
       </c>
       <c r="T32">
-        <v>0.01046100771587527</v>
+        <v>0.00529064886822028</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H33">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I33">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J33">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>9.06906276389268</v>
+        <v>9.567994999999998</v>
       </c>
       <c r="N33">
-        <v>9.06906276389268</v>
+        <v>28.703985</v>
       </c>
       <c r="O33">
-        <v>0.1299023003536568</v>
+        <v>0.1340674097678079</v>
       </c>
       <c r="P33">
-        <v>0.1299023003536568</v>
+        <v>0.1512172815776674</v>
       </c>
       <c r="Q33">
-        <v>115.8468740843286</v>
+        <v>122.287769087405</v>
       </c>
       <c r="R33">
-        <v>115.8468740843286</v>
+        <v>733.7266145244299</v>
       </c>
       <c r="S33">
-        <v>0.004220020128154311</v>
+        <v>0.004266230560267654</v>
       </c>
       <c r="T33">
-        <v>0.004220020128154311</v>
+        <v>0.003375528445025641</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H34">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I34">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J34">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>7.3959903831964</v>
+        <v>7.76793</v>
       </c>
       <c r="N34">
-        <v>7.3959903831964</v>
+        <v>23.30379</v>
       </c>
       <c r="O34">
-        <v>0.1059377566550608</v>
+        <v>0.108844774099239</v>
       </c>
       <c r="P34">
-        <v>0.1059377566550608</v>
+        <v>0.1227681722331178</v>
       </c>
       <c r="Q34">
-        <v>94.47529352893096</v>
+        <v>99.28128412767001</v>
       </c>
       <c r="R34">
-        <v>94.47529352893096</v>
+        <v>595.68770476602</v>
       </c>
       <c r="S34">
-        <v>0.003441505379032997</v>
+        <v>0.003463607616435828</v>
       </c>
       <c r="T34">
-        <v>0.003441505379032997</v>
+        <v>0.002740476836993334</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H35">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I35">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J35">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>9.1179709194825</v>
+        <v>9.390817666666665</v>
       </c>
       <c r="N35">
-        <v>9.1179709194825</v>
+        <v>28.172453</v>
       </c>
       <c r="O35">
-        <v>0.1306028448401794</v>
+        <v>0.1315847886805721</v>
       </c>
       <c r="P35">
-        <v>0.1306028448401794</v>
+        <v>0.1484170841795869</v>
       </c>
       <c r="Q35">
-        <v>116.471619671587</v>
+        <v>120.0232799414357</v>
       </c>
       <c r="R35">
-        <v>116.471619671587</v>
+        <v>720.139679648614</v>
       </c>
       <c r="S35">
-        <v>0.004242778091837357</v>
+        <v>0.004187229750374526</v>
       </c>
       <c r="T35">
-        <v>0.004242778091837357</v>
+        <v>0.003313021396424502</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H36">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I36">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J36">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>20.115376166178</v>
+        <v>20.35864033333333</v>
       </c>
       <c r="N36">
-        <v>20.115376166178</v>
+        <v>61.07592099999999</v>
       </c>
       <c r="O36">
-        <v>0.2881260946686912</v>
+        <v>0.2852666808338029</v>
       </c>
       <c r="P36">
-        <v>0.2881260946686912</v>
+        <v>0.3217579281577931</v>
       </c>
       <c r="Q36">
-        <v>256.9508570565786</v>
+        <v>260.2021330504663</v>
       </c>
       <c r="R36">
-        <v>256.9508570565786</v>
+        <v>1561.212798302798</v>
       </c>
       <c r="S36">
-        <v>0.009360095361191522</v>
+        <v>0.009077623217357904</v>
       </c>
       <c r="T36">
-        <v>0.009360095361191522</v>
+        <v>0.007182400236121881</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H37">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I37">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J37">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.63478981295333</v>
+        <v>1.7870065</v>
       </c>
       <c r="N37">
-        <v>1.63478981295333</v>
+        <v>3.574013</v>
       </c>
       <c r="O37">
-        <v>0.02341619667060394</v>
+        <v>0.02503965906056977</v>
       </c>
       <c r="P37">
-        <v>0.02341619667060394</v>
+        <v>0.01882848427433487</v>
       </c>
       <c r="Q37">
-        <v>20.88256466473702</v>
+        <v>22.8395853289735</v>
       </c>
       <c r="R37">
-        <v>20.88256466473702</v>
+        <v>91.35834131589401</v>
       </c>
       <c r="S37">
-        <v>0.0007607010884775823</v>
+        <v>0.0007968003475855642</v>
       </c>
       <c r="T37">
-        <v>0.0007607010884775823</v>
+        <v>0.0004202964342543876</v>
       </c>
     </row>
   </sheetData>
